--- a/data/教師一覧.xlsx
+++ b/data/教師一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/KyouikuHackathon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAE34C6-0BF6-C744-AFDB-D8E7514767DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACC6B8C-EE8F-B14A-9180-D53364C139A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>教師名</t>
   </si>
@@ -104,6 +104,117 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t xml:space="preserve">ス </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">センセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田先生</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤマダ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">センセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>安西先生</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">アンザイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">センセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>那須先生</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ナス </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">センセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>富樫先生</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">トガシ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">センセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高原先生</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タカハラ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">センセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>竹内先生</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タケウチ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">センセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柳先生</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヤナギ </t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">センセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤木先生</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">アカギセンセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魚住先生</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ウオズミセンセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仙道先生</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">センドウ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">センセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>桜木先生</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">サクラギセンセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>流川先生</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ルカワ </t>
     </rPh>
     <rPh sb="2" eb="4">
       <t xml:space="preserve">センセイ </t>
@@ -483,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -531,6 +642,66 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
